--- a/industry to business type.xlsx
+++ b/industry to business type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnconstantine/Desktop/franchise selection app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB9DB557-20A6-FC4C-A516-4C70E982E648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEBA11F-DD76-9D42-8B06-EDEC69236860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="3000" windowWidth="26040" windowHeight="13900" xr2:uid="{74C5837F-57E2-F549-9D27-2A8767D6F3F2}"/>
   </bookViews>
@@ -41,9 +41,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
   <si>
-    <t>business type</t>
-  </si>
-  <si>
     <t>Advertising &amp; Marketing</t>
   </si>
   <si>
@@ -180,13 +177,16 @@
   </si>
   <si>
     <t>Industry</t>
+  </si>
+  <si>
+    <t>business_type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -200,6 +200,12 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF7D353B"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -222,9 +228,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,7 +569,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -571,329 +578,329 @@
     <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
         <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/industry to business type.xlsx
+++ b/industry to business type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnconstantine/Desktop/franchise selection app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEBA11F-DD76-9D42-8B06-EDEC69236860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D54605-CA46-BD45-AE40-F927C15FA6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="3000" windowWidth="26040" windowHeight="13900" xr2:uid="{74C5837F-57E2-F549-9D27-2A8767D6F3F2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
   <si>
     <t>Advertising &amp; Marketing</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Automotive</t>
   </si>
   <si>
-    <t>automotive</t>
-  </si>
-  <si>
     <t>Building &amp; Storage</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
   </si>
   <si>
     <t>Pet Related</t>
-  </si>
-  <si>
-    <t>pet related</t>
   </si>
   <si>
     <t>Printing &amp; Copying</t>
@@ -569,7 +563,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -580,10 +574,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -591,47 +585,47 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -644,63 +638,63 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -708,7 +702,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -716,7 +710,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -724,7 +718,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -732,7 +726,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -740,7 +734,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -748,7 +742,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -756,7 +750,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -764,7 +758,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
@@ -772,135 +766,135 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
